--- a/SoftwareSanitario/database/excel/drugs_data.xlsx
+++ b/SoftwareSanitario/database/excel/drugs_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6013CD79-D6A6-4DBD-B371-45108B36FF57}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D5CB4E552A52AC6156845DA9857005BDEDDA4" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{44FFCDEB-3F3B-4A0F-A4B7-CFF146CA5A74}"/>
   <bookViews>
-    <workbookView xWindow="17988" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C100"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -668,7 +668,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1+1</f>
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
-        <v>1002</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -692,7 +692,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>1003</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>1004</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -716,7 +716,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>1005</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -728,7 +728,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>1006</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -740,7 +740,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -752,7 +752,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -764,7 +764,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>1009</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -776,7 +776,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1010</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -788,7 +788,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1011</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -800,7 +800,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>1012</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -812,7 +812,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>1013</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -824,7 +824,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>1014</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -836,7 +836,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>1015</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -848,7 +848,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>1016</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -860,7 +860,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1017</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -872,7 +872,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1018</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -884,7 +884,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>1019</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -896,7 +896,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>1020</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -908,7 +908,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -920,7 +920,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>1022</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -932,7 +932,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>1023</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -944,7 +944,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>1025</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -968,7 +968,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>1026</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -980,7 +980,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>1027</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -992,7 +992,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>1028</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1004,7 +1004,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>1029</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1016,7 +1016,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1028,7 +1028,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>1031</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1040,7 +1040,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1052,7 +1052,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>1033</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1064,7 +1064,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>1034</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>1035</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1088,7 +1088,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>1036</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1100,7 +1100,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>1037</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1112,7 +1112,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>1038</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1124,7 +1124,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>1039</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1136,7 +1136,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1148,7 +1148,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>1041</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1160,7 +1160,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>1042</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1172,7 +1172,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>1043</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1184,7 +1184,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>1044</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>1045</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1208,7 +1208,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>1046</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1220,7 +1220,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>1047</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1232,7 +1232,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>1048</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1244,7 +1244,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>1049</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1256,7 +1256,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>1051</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1280,7 +1280,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>1052</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1292,7 +1292,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>1053</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1304,7 +1304,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>1054</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1316,7 +1316,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>1055</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>1056</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1340,7 +1340,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>1057</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1352,7 +1352,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>1058</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1364,7 +1364,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>1059</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1376,7 +1376,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1388,7 +1388,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>1061</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1400,7 +1400,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>1062</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1412,7 +1412,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>1063</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1424,7 +1424,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>1064</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1436,7 +1436,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>1065</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1448,7 +1448,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ref="A67:A100" si="1">A66+1</f>
-        <v>1066</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1460,7 +1460,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>1067</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1472,7 +1472,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1484,7 +1484,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>1069</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1496,7 +1496,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>1071</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>1073</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>1074</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1568,7 +1568,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>1076</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1580,7 +1580,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>1077</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1592,7 +1592,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>1078</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>1079</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1616,7 +1616,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>1080</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1628,7 +1628,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>1081</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>1082</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>1083</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1664,7 +1664,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>1084</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1676,7 +1676,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>1085</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>1086</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>1087</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1712,7 +1712,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>1088</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>1089</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>1090</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>1091</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1760,7 +1760,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>1092</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>1093</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1784,7 +1784,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>1094</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1796,7 +1796,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>1095</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1808,7 +1808,7 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>1096</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>1097</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1832,7 +1832,7 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>1098</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>1099</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
